--- a/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850236540715879</v>
+        <v>0.988180914174102</v>
       </c>
       <c r="D2">
-        <v>1.00551502611242</v>
+        <v>1.008381221794343</v>
       </c>
       <c r="E2">
-        <v>0.9931576344588334</v>
+        <v>0.9962135530093124</v>
       </c>
       <c r="F2">
-        <v>0.9935806653872312</v>
+        <v>0.9965772062134711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036522180666445</v>
+        <v>1.038081410993866</v>
       </c>
       <c r="J2">
-        <v>1.007661722153959</v>
+        <v>1.010720971787842</v>
       </c>
       <c r="K2">
-        <v>1.016898058873735</v>
+        <v>1.019725014840247</v>
       </c>
       <c r="L2">
-        <v>1.004713124622573</v>
+        <v>1.007725892331186</v>
       </c>
       <c r="M2">
-        <v>1.005130162166178</v>
+        <v>1.008084432858503</v>
       </c>
       <c r="N2">
-        <v>1.009092717379833</v>
+        <v>1.012156311499097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9919081478884418</v>
+        <v>0.9928732535792286</v>
       </c>
       <c r="D3">
-        <v>1.010650959477291</v>
+        <v>1.011766394229113</v>
       </c>
       <c r="E3">
-        <v>0.998836136746485</v>
+        <v>0.9999609337265751</v>
       </c>
       <c r="F3">
-        <v>1.000800545174319</v>
+        <v>1.001962548369537</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038442638981438</v>
+        <v>1.039199341853818</v>
       </c>
       <c r="J3">
-        <v>1.012621862280458</v>
+        <v>1.013560104519731</v>
       </c>
       <c r="K3">
-        <v>1.021149349288167</v>
+        <v>1.022250903366828</v>
       </c>
       <c r="L3">
-        <v>1.009483931112757</v>
+        <v>1.010594314437334</v>
       </c>
       <c r="M3">
-        <v>1.011423193113272</v>
+        <v>1.012570379461175</v>
       </c>
       <c r="N3">
-        <v>1.014059901474248</v>
+        <v>1.014999476125118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962346659071202</v>
+        <v>0.9958448554767411</v>
       </c>
       <c r="D4">
-        <v>1.013880778809018</v>
+        <v>1.013912035745601</v>
       </c>
       <c r="E4">
-        <v>1.002411338657913</v>
+        <v>1.002340420226906</v>
       </c>
       <c r="F4">
-        <v>1.0053412026118</v>
+        <v>1.005373693439051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039636912879406</v>
+        <v>1.039896203764865</v>
       </c>
       <c r="J4">
-        <v>1.015735182211142</v>
+        <v>1.015355450823163</v>
       </c>
       <c r="K4">
-        <v>1.023814512668265</v>
+        <v>1.0238454050452</v>
       </c>
       <c r="L4">
-        <v>1.012480747808538</v>
+        <v>1.012410680273625</v>
       </c>
       <c r="M4">
-        <v>1.015375588644895</v>
+        <v>1.015407692500776</v>
       </c>
       <c r="N4">
-        <v>1.017177642676336</v>
+        <v>1.01679737202623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980244793120421</v>
+        <v>0.997079223263305</v>
       </c>
       <c r="D5">
-        <v>1.01521731479016</v>
+        <v>1.014803690231338</v>
       </c>
       <c r="E5">
-        <v>1.003891833486507</v>
+        <v>1.003330296505741</v>
       </c>
       <c r="F5">
-        <v>1.007220410146668</v>
+        <v>1.006790840013379</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040127874753245</v>
+        <v>1.040182964893857</v>
       </c>
       <c r="J5">
-        <v>1.017022128528237</v>
+        <v>1.016100547867781</v>
       </c>
       <c r="K5">
-        <v>1.024915400698439</v>
+        <v>1.024506467001261</v>
       </c>
       <c r="L5">
-        <v>1.013720086060655</v>
+        <v>1.01316509752121</v>
       </c>
       <c r="M5">
-        <v>1.017010031300946</v>
+        <v>1.016585429014588</v>
       </c>
       <c r="N5">
-        <v>1.018466416604815</v>
+        <v>1.017543527194115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.99832333830033</v>
+        <v>0.9972856220999424</v>
       </c>
       <c r="D6">
-        <v>1.01544050752108</v>
+        <v>1.014952804490375</v>
       </c>
       <c r="E6">
-        <v>1.004139128239412</v>
+        <v>1.003495898676237</v>
       </c>
       <c r="F6">
-        <v>1.007534243474198</v>
+        <v>1.007027813968411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040209670954062</v>
+        <v>1.040230753948622</v>
       </c>
       <c r="J6">
-        <v>1.01723696018714</v>
+        <v>1.016225095397843</v>
       </c>
       <c r="K6">
-        <v>1.025099125249672</v>
+        <v>1.024616926952436</v>
       </c>
       <c r="L6">
-        <v>1.013927002563206</v>
+        <v>1.013291237997951</v>
       </c>
       <c r="M6">
-        <v>1.017282910827591</v>
+        <v>1.016782308878712</v>
       </c>
       <c r="N6">
-        <v>1.018681553349316</v>
+        <v>1.017668251595956</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962586935763967</v>
+        <v>0.9958614069296992</v>
       </c>
       <c r="D7">
-        <v>1.013898719895527</v>
+        <v>1.013923990385441</v>
       </c>
       <c r="E7">
-        <v>1.002431208045911</v>
+        <v>1.002353687600491</v>
       </c>
       <c r="F7">
-        <v>1.005366427171475</v>
+        <v>1.005392694917357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039643516194489</v>
+        <v>1.039900059651037</v>
       </c>
       <c r="J7">
-        <v>1.015752463032404</v>
+        <v>1.015365444402932</v>
       </c>
       <c r="K7">
-        <v>1.023829298364311</v>
+        <v>1.023854274225868</v>
       </c>
       <c r="L7">
-        <v>1.012497387192038</v>
+        <v>1.012420796504627</v>
       </c>
       <c r="M7">
-        <v>1.015397532921669</v>
+        <v>1.015423487936229</v>
       </c>
       <c r="N7">
-        <v>1.017194948038346</v>
+        <v>1.016807379798028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873778772427941</v>
+        <v>0.9897804620151427</v>
       </c>
       <c r="D8">
-        <v>1.007270781720809</v>
+        <v>1.00953474761957</v>
       </c>
       <c r="E8">
-        <v>0.9950980107580664</v>
+        <v>0.9974896227080964</v>
       </c>
       <c r="F8">
-        <v>0.996048866726292</v>
+        <v>0.9984128700067443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037181525880784</v>
+        <v>1.038464802603284</v>
       </c>
       <c r="J8">
-        <v>1.009358665520955</v>
+        <v>1.011689322494164</v>
       </c>
       <c r="K8">
-        <v>1.018353158179753</v>
+        <v>1.02058709523505</v>
       </c>
       <c r="L8">
-        <v>1.006344794600967</v>
+        <v>1.008703706371</v>
       </c>
       <c r="M8">
-        <v>1.007282625964587</v>
+        <v>1.009614382983412</v>
       </c>
       <c r="N8">
-        <v>1.010792070601052</v>
+        <v>1.013126037374493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706655078375577</v>
+        <v>0.9785418834258877</v>
       </c>
       <c r="D9">
-        <v>0.994821333175424</v>
+        <v>1.001440588558673</v>
       </c>
       <c r="E9">
-        <v>0.9813560517135588</v>
+        <v>0.988552832760799</v>
       </c>
       <c r="F9">
-        <v>0.9785419197307466</v>
+        <v>0.9855165587291517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032449084069303</v>
+        <v>1.035725538099262</v>
       </c>
       <c r="J9">
-        <v>0.9972984347773253</v>
+        <v>1.004875822294059</v>
       </c>
       <c r="K9">
-        <v>1.007998993162347</v>
+        <v>1.014510336377913</v>
       </c>
       <c r="L9">
-        <v>0.9947590343908557</v>
+        <v>1.001834403328649</v>
       </c>
       <c r="M9">
-        <v>0.9919930054936874</v>
+        <v>0.9988490733523685</v>
       </c>
       <c r="N9">
-        <v>0.9987147129464383</v>
+        <v>1.006302861222585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9586815637318343</v>
+        <v>0.970655763851702</v>
       </c>
       <c r="D10">
-        <v>0.9859190610978921</v>
+        <v>0.995777631109739</v>
       </c>
       <c r="E10">
-        <v>0.9715490336825763</v>
+        <v>0.9823213169727255</v>
       </c>
       <c r="F10">
-        <v>0.9660068106700885</v>
+        <v>0.9764668045580355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028992403736678</v>
+        <v>1.03374741100589</v>
       </c>
       <c r="J10">
-        <v>0.9886361533459229</v>
+        <v>1.000084023417541</v>
       </c>
       <c r="K10">
-        <v>1.000547292072926</v>
+        <v>1.010223542530058</v>
       </c>
       <c r="L10">
-        <v>0.986451708659974</v>
+        <v>0.9970172741609009</v>
       </c>
       <c r="M10">
-        <v>0.9810181993581774</v>
+        <v>0.9912743677232185</v>
       </c>
       <c r="N10">
-        <v>0.9900401300818259</v>
+        <v>1.001504257442035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532593156554982</v>
+        <v>0.9671373201699435</v>
       </c>
       <c r="D11">
-        <v>0.981899321593614</v>
+        <v>0.9932561259906301</v>
       </c>
       <c r="E11">
-        <v>0.9671247988418167</v>
+        <v>0.9795513218062544</v>
       </c>
       <c r="F11">
-        <v>0.9603395836736639</v>
+        <v>0.9724284003378975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027414503140579</v>
+        <v>1.032852208129645</v>
       </c>
       <c r="J11">
-        <v>0.9847146717858491</v>
+        <v>0.9979441419504901</v>
       </c>
       <c r="K11">
-        <v>0.9971708582079738</v>
+        <v>1.008306352463683</v>
       </c>
       <c r="L11">
-        <v>0.9826945155710146</v>
+        <v>0.994869455581405</v>
       </c>
       <c r="M11">
-        <v>0.9760503065569134</v>
+        <v>0.987889705960034</v>
       </c>
       <c r="N11">
-        <v>0.9861130795681368</v>
+        <v>0.9993613370978527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512069568907536</v>
+        <v>0.9658138782033893</v>
       </c>
       <c r="D12">
-        <v>0.980379267163119</v>
+        <v>0.9923085352190634</v>
       </c>
       <c r="E12">
-        <v>0.9654523361050257</v>
+        <v>0.9785110219215063</v>
       </c>
       <c r="F12">
-        <v>0.9581951564994801</v>
+        <v>0.9709091923263299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026815274470285</v>
+        <v>1.032513638670259</v>
       </c>
       <c r="J12">
-        <v>0.9832301581054801</v>
+        <v>0.9971389896266502</v>
       </c>
       <c r="K12">
-        <v>0.9958922771570444</v>
+        <v>1.007584590127257</v>
       </c>
       <c r="L12">
-        <v>0.9812727580047154</v>
+        <v>0.9940618309528765</v>
       </c>
       <c r="M12">
-        <v>0.9741696246816738</v>
+        <v>0.9866157857164369</v>
       </c>
       <c r="N12">
-        <v>0.9846264577080651</v>
+        <v>0.9985550413653604</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516489848546147</v>
+        <v>0.9660985254242799</v>
       </c>
       <c r="D13">
-        <v>0.9807065808442105</v>
+        <v>0.9925123035674223</v>
       </c>
       <c r="E13">
-        <v>0.9658124439924873</v>
+        <v>0.9787346962585708</v>
       </c>
       <c r="F13">
-        <v>0.9586569841353467</v>
+        <v>0.9712359546301844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026944421368317</v>
+        <v>1.032586540909953</v>
       </c>
       <c r="J13">
-        <v>0.9835498933620422</v>
+        <v>0.9973121729819002</v>
       </c>
       <c r="K13">
-        <v>0.9961676757776354</v>
+        <v>1.00773985445646</v>
       </c>
       <c r="L13">
-        <v>0.9815789510095652</v>
+        <v>0.9942355227394917</v>
       </c>
       <c r="M13">
-        <v>0.9745746905436863</v>
+        <v>0.986889818305394</v>
       </c>
       <c r="N13">
-        <v>0.9849466470253661</v>
+        <v>0.9987284706608396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530904686495194</v>
+        <v>0.9670282671506463</v>
       </c>
       <c r="D14">
-        <v>0.9817742364974729</v>
+        <v>0.9931780254762768</v>
       </c>
       <c r="E14">
-        <v>0.9669871612526187</v>
+        <v>0.9794655666506331</v>
       </c>
       <c r="F14">
-        <v>0.9601631489108882</v>
+        <v>0.9723032201698556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027365244315947</v>
+        <v>1.032824346788075</v>
       </c>
       <c r="J14">
-        <v>0.9845925446910341</v>
+        <v>0.9978778012960366</v>
       </c>
       <c r="K14">
-        <v>0.9970656804759811</v>
+        <v>1.008246890717915</v>
       </c>
       <c r="L14">
-        <v>0.9825775396993947</v>
+        <v>0.994802900731718</v>
       </c>
       <c r="M14">
-        <v>0.9758955892196023</v>
+        <v>0.9877847499831727</v>
       </c>
       <c r="N14">
-        <v>0.9859907790388387</v>
+        <v>0.9992949022320609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539734350289907</v>
+        <v>0.9675988907751739</v>
       </c>
       <c r="D15">
-        <v>0.9824284149739353</v>
+        <v>0.9935867246507359</v>
       </c>
       <c r="E15">
-        <v>0.9677070096474197</v>
+        <v>0.9799143498074453</v>
       </c>
       <c r="F15">
-        <v>0.961085821318585</v>
+        <v>0.9729582216624327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027622757873095</v>
+        <v>1.03297005740196</v>
       </c>
       <c r="J15">
-        <v>0.9852311869402971</v>
+        <v>0.9982249212043363</v>
       </c>
       <c r="K15">
-        <v>0.9976156730367692</v>
+        <v>1.008558001379325</v>
       </c>
       <c r="L15">
-        <v>0.9831892675578757</v>
+        <v>0.9951511623820852</v>
       </c>
       <c r="M15">
-        <v>0.9767046541329999</v>
+        <v>0.9883339029603319</v>
       </c>
       <c r="N15">
-        <v>0.9866303282333491</v>
+        <v>0.9996425150904453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590362390848376</v>
+        <v>0.9708870066432891</v>
       </c>
       <c r="D16">
-        <v>0.9861821836994825</v>
+        <v>0.9959434655980344</v>
       </c>
       <c r="E16">
-        <v>0.9718387125996704</v>
+        <v>0.9825035891696359</v>
       </c>
       <c r="F16">
-        <v>0.9663776012059171</v>
+        <v>0.9767321986878317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029095337060067</v>
+        <v>1.033805987827273</v>
       </c>
       <c r="J16">
-        <v>0.988892626958538</v>
+        <v>1.00022462570649</v>
       </c>
       <c r="K16">
-        <v>1.000768060480214</v>
+        <v>1.010349455952838</v>
       </c>
       <c r="L16">
-        <v>0.986697513724436</v>
+        <v>0.9971584687766715</v>
       </c>
       <c r="M16">
-        <v>0.9813431114901797</v>
+        <v>0.9914967085786512</v>
       </c>
       <c r="N16">
-        <v>0.9902969679163887</v>
+        <v>1.001645059402362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621474072090073</v>
+        <v>0.972921139623568</v>
       </c>
       <c r="D17">
-        <v>0.9884912089910298</v>
+        <v>0.9974028196597365</v>
       </c>
       <c r="E17">
-        <v>0.9743812316926103</v>
+        <v>0.9841081242733035</v>
       </c>
       <c r="F17">
-        <v>0.9696306261339935</v>
+        <v>0.9790666467177146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029996699261376</v>
+        <v>1.034319828654821</v>
       </c>
       <c r="J17">
-        <v>0.9911421517919644</v>
+        <v>1.001461216959914</v>
       </c>
       <c r="K17">
-        <v>1.002704083674467</v>
+        <v>1.011456540616231</v>
       </c>
       <c r="L17">
-        <v>0.988853873226464</v>
+        <v>0.9984006538658674</v>
       </c>
       <c r="M17">
-        <v>0.9841929518043193</v>
+        <v>0.9934519463519612</v>
       </c>
       <c r="N17">
-        <v>0.9925496873331028</v>
+        <v>1.002883406757204</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9639398478392792</v>
+        <v>0.9740976776112342</v>
       </c>
       <c r="D18">
-        <v>0.9898222634682871</v>
+        <v>0.9982473796633099</v>
       </c>
       <c r="E18">
-        <v>0.9758472687865067</v>
+        <v>0.9850371484673198</v>
       </c>
       <c r="F18">
-        <v>0.9715052087021396</v>
+        <v>0.9804168153375167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030514689294125</v>
+        <v>1.03461583048917</v>
       </c>
       <c r="J18">
-        <v>0.9924379626221096</v>
+        <v>1.002176266639442</v>
       </c>
       <c r="K18">
-        <v>1.003819021384731</v>
+        <v>1.012096434349413</v>
       </c>
       <c r="L18">
-        <v>0.9900963536444912</v>
+        <v>0.9991192573019413</v>
       </c>
       <c r="M18">
-        <v>0.9858346204826985</v>
+        <v>0.9945823645146481</v>
       </c>
       <c r="N18">
-        <v>0.9938473383632586</v>
+        <v>1.003599471889294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9645473422828279</v>
+        <v>0.9744971889112471</v>
       </c>
       <c r="D19">
-        <v>0.9902735065258526</v>
+        <v>0.9985342401743724</v>
       </c>
       <c r="E19">
-        <v>0.9763443391363613</v>
+        <v>0.9853527740429894</v>
       </c>
       <c r="F19">
-        <v>0.9721406129823889</v>
+        <v>0.9808752753933671</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03069002098148</v>
+        <v>1.03471613677621</v>
       </c>
       <c r="J19">
-        <v>0.9928771002038908</v>
+        <v>1.002419038570958</v>
       </c>
       <c r="K19">
-        <v>1.004196813216836</v>
+        <v>1.012313643030482</v>
       </c>
       <c r="L19">
-        <v>0.9905174744946176</v>
+        <v>0.9993632897348355</v>
       </c>
       <c r="M19">
-        <v>0.9863909781154392</v>
+        <v>0.9949661332066414</v>
       </c>
       <c r="N19">
-        <v>0.9942870995707753</v>
+        <v>1.0038425885848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9618159321637478</v>
+        <v>0.9727039309397335</v>
       </c>
       <c r="D20">
-        <v>0.9882451173855312</v>
+        <v>0.9972469372369922</v>
       </c>
       <c r="E20">
-        <v>0.974110215293317</v>
+        <v>0.9839366882327036</v>
       </c>
       <c r="F20">
-        <v>0.9692839941655546</v>
+        <v>0.9788173776189404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029900800606146</v>
+        <v>1.034265084127715</v>
       </c>
       <c r="J20">
-        <v>0.9909025003883037</v>
+        <v>1.001329190903912</v>
       </c>
       <c r="K20">
-        <v>1.002497860152573</v>
+        <v>1.011338369293703</v>
       </c>
       <c r="L20">
-        <v>0.988624112013329</v>
+        <v>0.9982679974062818</v>
       </c>
       <c r="M20">
-        <v>0.9838893414393963</v>
+        <v>0.9932432129558151</v>
       </c>
       <c r="N20">
-        <v>0.9923096955969605</v>
+        <v>1.002751193209059</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9526670730972983</v>
+        <v>0.9667549458925027</v>
       </c>
       <c r="D21">
-        <v>0.9814606009735036</v>
+        <v>0.9929822951286486</v>
       </c>
       <c r="E21">
-        <v>0.9666420605512051</v>
+        <v>0.9792506635165648</v>
       </c>
       <c r="F21">
-        <v>0.9597207370961224</v>
+        <v>0.9719894759605207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027241692904829</v>
+        <v>1.032754487974698</v>
       </c>
       <c r="J21">
-        <v>0.9842862996660963</v>
+        <v>0.9977115268687053</v>
       </c>
       <c r="K21">
-        <v>0.9968019312897897</v>
+        <v>1.008097851048614</v>
       </c>
       <c r="L21">
-        <v>0.982284220982079</v>
+        <v>0.9946360977560808</v>
       </c>
       <c r="M21">
-        <v>0.975507620099403</v>
+        <v>0.9875216842388052</v>
       </c>
       <c r="N21">
-        <v>0.9856840991108387</v>
+        <v>0.9991283916759702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9466913194524319</v>
+        <v>0.962918385025593</v>
       </c>
       <c r="D22">
-        <v>0.9770377414357065</v>
+        <v>0.9902370408471375</v>
       </c>
       <c r="E22">
-        <v>0.9617767216930397</v>
+        <v>0.9762380688875318</v>
       </c>
       <c r="F22">
-        <v>0.9534781566528918</v>
+        <v>0.9675849717775667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025493308559963</v>
+        <v>1.031769571028827</v>
       </c>
       <c r="J22">
-        <v>0.9799636660568977</v>
+        <v>0.9953770374408445</v>
       </c>
       <c r="K22">
-        <v>0.99307823469599</v>
+        <v>1.006004416986362</v>
       </c>
       <c r="L22">
-        <v>0.9781454198821522</v>
+        <v>0.9922954228602054</v>
       </c>
       <c r="M22">
-        <v>0.9700312041992731</v>
+        <v>0.9838271377708266</v>
       </c>
       <c r="N22">
-        <v>0.9813553268661019</v>
+        <v>0.9967905870053523</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9498815717174857</v>
+        <v>0.9649616761088592</v>
       </c>
       <c r="D23">
-        <v>0.9793980732602051</v>
+        <v>0.9916986091422779</v>
       </c>
       <c r="E23">
-        <v>0.9643729105995456</v>
+        <v>0.9778416092856526</v>
       </c>
       <c r="F23">
-        <v>0.9568104996698508</v>
+        <v>0.9699308696811243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026427755982008</v>
+        <v>1.032295111677738</v>
       </c>
       <c r="J23">
-        <v>0.9822714373675219</v>
+        <v>0.9966204655387572</v>
       </c>
       <c r="K23">
-        <v>0.9950664444208078</v>
+        <v>1.007119660340556</v>
       </c>
       <c r="L23">
-        <v>0.9803547279389967</v>
+        <v>0.9935418605143479</v>
       </c>
       <c r="M23">
-        <v>0.9729550264398754</v>
+        <v>0.9857952433990105</v>
       </c>
       <c r="N23">
-        <v>0.9836663754766926</v>
+        <v>0.9980357809137874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9619657799888003</v>
+        <v>0.9728021088336937</v>
       </c>
       <c r="D24">
-        <v>0.9883563641356239</v>
+        <v>0.9973173943236009</v>
       </c>
       <c r="E24">
-        <v>0.9742327282069271</v>
+        <v>0.9840141739971113</v>
       </c>
       <c r="F24">
-        <v>0.9694406925992218</v>
+        <v>0.9789300469718363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029944156989613</v>
+        <v>1.034289832278962</v>
       </c>
       <c r="J24">
-        <v>0.9910108387430626</v>
+        <v>1.001388867018244</v>
       </c>
       <c r="K24">
-        <v>1.002591087771239</v>
+        <v>1.011391783871618</v>
       </c>
       <c r="L24">
-        <v>0.9887279783018212</v>
+        <v>0.9983279574752554</v>
       </c>
       <c r="M24">
-        <v>0.984026593318821</v>
+        <v>0.9933375615450787</v>
       </c>
       <c r="N24">
-        <v>0.9924181878046098</v>
+        <v>1.002810954070319</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9751243201048135</v>
+        <v>0.9815134624113019</v>
       </c>
       <c r="D25">
-        <v>0.9981392592472059</v>
+        <v>1.003578221149104</v>
       </c>
       <c r="E25">
-        <v>0.9850149437574852</v>
+        <v>0.9909092870909436</v>
       </c>
       <c r="F25">
-        <v>0.9832095545636516</v>
+        <v>0.9889263118627826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033722776265992</v>
+        <v>1.036459657967189</v>
       </c>
       <c r="J25">
-        <v>1.000518863333645</v>
+        <v>1.006679400907292</v>
       </c>
       <c r="K25">
-        <v>1.010766529658541</v>
+        <v>1.016121242640462</v>
       </c>
       <c r="L25">
-        <v>0.9978504246505135</v>
+        <v>1.003650383177146</v>
       </c>
       <c r="M25">
-        <v>0.9960742354534706</v>
+        <v>1.001698999896721</v>
       </c>
       <c r="N25">
-        <v>1.001939714880696</v>
+        <v>1.008109001124322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.988180914174102</v>
+        <v>0.9902146418041007</v>
       </c>
       <c r="D2">
-        <v>1.008381221794343</v>
+        <v>1.010012242588516</v>
       </c>
       <c r="E2">
-        <v>0.9962135530093124</v>
+        <v>0.9980314778078434</v>
       </c>
       <c r="F2">
-        <v>0.9965772062134711</v>
+        <v>1.020900190700175</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038081410993866</v>
+        <v>1.039810115724276</v>
       </c>
       <c r="J2">
-        <v>1.010720971787842</v>
+        <v>1.012692023067704</v>
       </c>
       <c r="K2">
-        <v>1.019725014840247</v>
+        <v>1.021333831225068</v>
       </c>
       <c r="L2">
-        <v>1.007725892331186</v>
+        <v>1.009518305568661</v>
       </c>
       <c r="M2">
-        <v>1.008084432858503</v>
+        <v>1.032075833584487</v>
       </c>
       <c r="N2">
-        <v>1.012156311499097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008212463891305</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033958231058698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928732535792286</v>
+        <v>0.9938474275311995</v>
       </c>
       <c r="D3">
-        <v>1.011766394229113</v>
+        <v>1.012443500584792</v>
       </c>
       <c r="E3">
-        <v>0.9999609337265751</v>
+        <v>1.000858882791593</v>
       </c>
       <c r="F3">
-        <v>1.001962548369537</v>
+        <v>1.023557774556449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039199341853818</v>
+        <v>1.040432368627754</v>
       </c>
       <c r="J3">
-        <v>1.013560104519731</v>
+        <v>1.014507234785161</v>
       </c>
       <c r="K3">
-        <v>1.022250903366828</v>
+        <v>1.022919602267364</v>
       </c>
       <c r="L3">
-        <v>1.010594314437334</v>
+        <v>1.011480785835445</v>
       </c>
       <c r="M3">
-        <v>1.012570379461175</v>
+        <v>1.033897847553991</v>
       </c>
       <c r="N3">
-        <v>1.014999476125118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008827617887914</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.035400244723232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958448554767411</v>
+        <v>0.9961567979220188</v>
       </c>
       <c r="D4">
-        <v>1.013912035745601</v>
+        <v>1.013991068861709</v>
       </c>
       <c r="E4">
-        <v>1.002340420226906</v>
+        <v>1.002662264168643</v>
       </c>
       <c r="F4">
-        <v>1.005373693439051</v>
+        <v>1.025253887311149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039896203764865</v>
+        <v>1.040817725538411</v>
       </c>
       <c r="J4">
-        <v>1.015355450823163</v>
+        <v>1.015659326747874</v>
       </c>
       <c r="K4">
-        <v>1.0238454050452</v>
+        <v>1.023923516496791</v>
       </c>
       <c r="L4">
-        <v>1.012410680273625</v>
+        <v>1.012728663854586</v>
       </c>
       <c r="M4">
-        <v>1.015407692500776</v>
+        <v>1.035056782727817</v>
       </c>
       <c r="N4">
-        <v>1.01679737202623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009217833550863</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.036317470165345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.997079223263305</v>
+        <v>0.9971180546825174</v>
       </c>
       <c r="D5">
-        <v>1.014803690231338</v>
+        <v>1.014635666094226</v>
       </c>
       <c r="E5">
-        <v>1.003330296505741</v>
+        <v>1.003414310790687</v>
       </c>
       <c r="F5">
-        <v>1.006790840013379</v>
+        <v>1.025961437261953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040182964893857</v>
+        <v>1.040975638441428</v>
       </c>
       <c r="J5">
-        <v>1.016100547867781</v>
+        <v>1.016138405501551</v>
       </c>
       <c r="K5">
-        <v>1.024506467001261</v>
+        <v>1.024340349750583</v>
       </c>
       <c r="L5">
-        <v>1.01316509752121</v>
+        <v>1.013248131485279</v>
       </c>
       <c r="M5">
-        <v>1.016585429014588</v>
+        <v>1.035539304863305</v>
       </c>
       <c r="N5">
-        <v>1.017543527194115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009380044562568</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.036699356213681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9972856220999424</v>
+        <v>0.997278898790058</v>
       </c>
       <c r="D6">
-        <v>1.014952804490375</v>
+        <v>1.01474354869803</v>
       </c>
       <c r="E6">
-        <v>1.003495898676237</v>
+        <v>1.00354022994093</v>
       </c>
       <c r="F6">
-        <v>1.007027813968411</v>
+        <v>1.026079919581778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040230753948622</v>
+        <v>1.041001914113006</v>
       </c>
       <c r="J6">
-        <v>1.016225095397843</v>
+        <v>1.016218539814478</v>
       </c>
       <c r="K6">
-        <v>1.024616926952436</v>
+        <v>1.024410035041889</v>
       </c>
       <c r="L6">
-        <v>1.013291237997951</v>
+        <v>1.013335054396811</v>
       </c>
       <c r="M6">
-        <v>1.016782308878712</v>
+        <v>1.035620050050516</v>
       </c>
       <c r="N6">
-        <v>1.017668251595956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009407173963431</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.036763260951983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958614069296992</v>
+        <v>0.9961696796482743</v>
       </c>
       <c r="D7">
-        <v>1.013923990385441</v>
+        <v>1.013999705406238</v>
       </c>
       <c r="E7">
-        <v>1.002353687600491</v>
+        <v>1.002672336789096</v>
       </c>
       <c r="F7">
-        <v>1.005392694917357</v>
+        <v>1.025263363046321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039900059651037</v>
+        <v>1.040819851593303</v>
       </c>
       <c r="J7">
-        <v>1.015365444402932</v>
+        <v>1.015665748737698</v>
       </c>
       <c r="K7">
-        <v>1.023854274225868</v>
+        <v>1.023929106594811</v>
       </c>
       <c r="L7">
-        <v>1.012420796504627</v>
+        <v>1.012735625046335</v>
       </c>
       <c r="M7">
-        <v>1.015423487936229</v>
+        <v>1.035063248525393</v>
       </c>
       <c r="N7">
-        <v>1.016807379798028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009220008184555</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.036322587440511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9897804620151427</v>
+        <v>0.9914510799599431</v>
       </c>
       <c r="D8">
-        <v>1.00953474761957</v>
+        <v>1.010839283475705</v>
       </c>
       <c r="E8">
-        <v>0.9974896227080964</v>
+        <v>0.9989925246776363</v>
       </c>
       <c r="F8">
-        <v>0.9984128700067443</v>
+        <v>1.021803286877433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038464802603284</v>
+        <v>1.040024015969117</v>
       </c>
       <c r="J8">
-        <v>1.011689322494164</v>
+        <v>1.013310208383785</v>
       </c>
       <c r="K8">
-        <v>1.02058709523505</v>
+        <v>1.021874404562743</v>
       </c>
       <c r="L8">
-        <v>1.008703706371</v>
+        <v>1.010186160172932</v>
       </c>
       <c r="M8">
-        <v>1.009614382983412</v>
+        <v>1.032695800959033</v>
       </c>
       <c r="N8">
-        <v>1.013126037374493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008422003261275</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03444889800388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785418834258877</v>
+        <v>0.9828069064640867</v>
       </c>
       <c r="D9">
-        <v>1.001440588558673</v>
+        <v>1.005067802688908</v>
       </c>
       <c r="E9">
-        <v>0.988552832760799</v>
+        <v>0.9923004216293729</v>
       </c>
       <c r="F9">
-        <v>0.9855165587291517</v>
+        <v>1.015519736874848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035725538099262</v>
+        <v>1.038487102163591</v>
       </c>
       <c r="J9">
-        <v>1.004875822294059</v>
+        <v>1.008981755513614</v>
       </c>
       <c r="K9">
-        <v>1.014510336377913</v>
+        <v>1.018079189966663</v>
       </c>
       <c r="L9">
-        <v>1.001834403328649</v>
+        <v>1.005519666683889</v>
       </c>
       <c r="M9">
-        <v>0.9988490733523685</v>
+        <v>1.028365937262518</v>
       </c>
       <c r="N9">
-        <v>1.006302861222585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00695402028211</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03102206374528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.970655763851702</v>
+        <v>0.9768585642110611</v>
       </c>
       <c r="D10">
-        <v>0.995777631109739</v>
+        <v>1.001120755274289</v>
       </c>
       <c r="E10">
-        <v>0.9823213169727255</v>
+        <v>0.9877372163890588</v>
       </c>
       <c r="F10">
-        <v>0.9764668045580355</v>
+        <v>1.011414483285265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03374741100589</v>
+        <v>1.03740368717517</v>
       </c>
       <c r="J10">
-        <v>1.000084023417541</v>
+        <v>1.00602139754815</v>
       </c>
       <c r="K10">
-        <v>1.010223542530058</v>
+        <v>1.015469803580264</v>
       </c>
       <c r="L10">
-        <v>0.9970172741609009</v>
+        <v>1.002331466134713</v>
       </c>
       <c r="M10">
-        <v>0.9912743677232185</v>
+        <v>1.025580659342579</v>
       </c>
       <c r="N10">
-        <v>1.001504257442035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005952382748622</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.02886971521801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9671373201699435</v>
+        <v>0.9746578444257638</v>
       </c>
       <c r="D11">
-        <v>0.9932561259906301</v>
+        <v>0.9997357323748159</v>
       </c>
       <c r="E11">
-        <v>0.9795513218062544</v>
+        <v>0.9861108527240557</v>
       </c>
       <c r="F11">
-        <v>0.9724284003378975</v>
+        <v>1.011315771670222</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032852208129645</v>
+        <v>1.037186190547306</v>
       </c>
       <c r="J11">
-        <v>0.9979441419504901</v>
+        <v>1.005124256636099</v>
       </c>
       <c r="K11">
-        <v>1.008306352463683</v>
+        <v>1.014662634117471</v>
       </c>
       <c r="L11">
-        <v>0.994869455581405</v>
+        <v>1.001299538944123</v>
       </c>
       <c r="M11">
-        <v>0.987889705960034</v>
+        <v>1.02602739830169</v>
       </c>
       <c r="N11">
-        <v>0.9993613370978527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005677629665044</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029663954240648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9658138782033893</v>
+        <v>0.9739797495528417</v>
       </c>
       <c r="D12">
-        <v>0.9923085352190634</v>
+        <v>0.9993379345998684</v>
       </c>
       <c r="E12">
-        <v>0.9785110219215063</v>
+        <v>0.9856344488170287</v>
       </c>
       <c r="F12">
-        <v>0.9709091923263299</v>
+        <v>1.011861361989051</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032513638670259</v>
+        <v>1.037195257993035</v>
       </c>
       <c r="J12">
-        <v>0.9971389896266502</v>
+        <v>1.004927668421205</v>
       </c>
       <c r="K12">
-        <v>1.007584590127257</v>
+        <v>1.014477829739251</v>
       </c>
       <c r="L12">
-        <v>0.9940618309528765</v>
+        <v>1.001042144141206</v>
       </c>
       <c r="M12">
-        <v>0.9866157857164369</v>
+        <v>1.026764791348691</v>
       </c>
       <c r="N12">
-        <v>0.9985550413653604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005635668454748</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030576414516999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9660985254242799</v>
+        <v>0.9744277015547262</v>
       </c>
       <c r="D13">
-        <v>0.9925123035674223</v>
+        <v>0.9996722075547151</v>
       </c>
       <c r="E13">
-        <v>0.9787346962585708</v>
+        <v>0.9860082018547808</v>
       </c>
       <c r="F13">
-        <v>0.9712359546301844</v>
+        <v>1.012959063157384</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032586540909953</v>
+        <v>1.037383907284334</v>
       </c>
       <c r="J13">
-        <v>0.9973121729819002</v>
+        <v>1.005258447160688</v>
       </c>
       <c r="K13">
-        <v>1.00773985445646</v>
+        <v>1.014761635215803</v>
       </c>
       <c r="L13">
-        <v>0.9942355227394917</v>
+        <v>1.0013635096408</v>
       </c>
       <c r="M13">
-        <v>0.986889818305394</v>
+        <v>1.027798914364544</v>
       </c>
       <c r="N13">
-        <v>0.9987284706608396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005770368311673</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031672710423396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9670282671506463</v>
+        <v>0.9752466566417817</v>
       </c>
       <c r="D14">
-        <v>0.9931780254762768</v>
+        <v>1.000233857195792</v>
       </c>
       <c r="E14">
-        <v>0.9794655666506331</v>
+        <v>0.9866508659622688</v>
       </c>
       <c r="F14">
-        <v>0.9723032201698556</v>
+        <v>1.013963647313281</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032824346788075</v>
+        <v>1.037593797825874</v>
       </c>
       <c r="J14">
-        <v>0.9978778012960366</v>
+        <v>1.005723918758018</v>
       </c>
       <c r="K14">
-        <v>1.008246890717915</v>
+        <v>1.015168327732989</v>
       </c>
       <c r="L14">
-        <v>0.994802900731718</v>
+        <v>1.001846301906174</v>
       </c>
       <c r="M14">
-        <v>0.9877847499831727</v>
+        <v>1.028643578209649</v>
       </c>
       <c r="N14">
-        <v>0.9992949022320609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005942956141703</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032514724443807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9675988907751739</v>
+        <v>0.9756954616631541</v>
       </c>
       <c r="D15">
-        <v>0.9935867246507359</v>
+        <v>1.000534401013174</v>
       </c>
       <c r="E15">
-        <v>0.9799143498074453</v>
+        <v>0.9869967303338767</v>
       </c>
       <c r="F15">
-        <v>0.9729582216624327</v>
+        <v>1.014360073178718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03297005740196</v>
+        <v>1.037688262222667</v>
       </c>
       <c r="J15">
-        <v>0.9982249212043363</v>
+        <v>1.005958047341405</v>
       </c>
       <c r="K15">
-        <v>1.008558001379325</v>
+        <v>1.015374374744905</v>
       </c>
       <c r="L15">
-        <v>0.9951511623820852</v>
+        <v>1.002094789704169</v>
       </c>
       <c r="M15">
-        <v>0.9883339029603319</v>
+        <v>1.028945714812642</v>
       </c>
       <c r="N15">
-        <v>0.9996425150904453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006025423900809</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032791259250336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9708870066432891</v>
+        <v>0.9781169761560013</v>
       </c>
       <c r="D16">
-        <v>0.9959434655980344</v>
+        <v>1.002131816575834</v>
       </c>
       <c r="E16">
-        <v>0.9825035891696359</v>
+        <v>0.9888410484068271</v>
       </c>
       <c r="F16">
-        <v>0.9767321986878317</v>
+        <v>1.01593273443543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033805987827273</v>
+        <v>1.038122259688352</v>
       </c>
       <c r="J16">
-        <v>1.00022462570649</v>
+        <v>1.007146882303158</v>
       </c>
       <c r="K16">
-        <v>1.010349455952838</v>
+        <v>1.016426121885766</v>
       </c>
       <c r="L16">
-        <v>0.9971584687766715</v>
+        <v>1.003377467194152</v>
       </c>
       <c r="M16">
-        <v>0.9914967085786512</v>
+        <v>1.029984305310058</v>
       </c>
       <c r="N16">
-        <v>1.001645059402362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006423063425421</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033573236951905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972921139623568</v>
+        <v>0.9795503336021829</v>
       </c>
       <c r="D17">
-        <v>0.9974028196597365</v>
+        <v>1.003067214900732</v>
       </c>
       <c r="E17">
-        <v>0.9841081242733035</v>
+        <v>0.9899247829866933</v>
       </c>
       <c r="F17">
-        <v>0.9790666467177146</v>
+        <v>1.016611117642893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034319828654821</v>
+        <v>1.038344310619355</v>
       </c>
       <c r="J17">
-        <v>1.001461216959914</v>
+        <v>1.007817696262945</v>
       </c>
       <c r="K17">
-        <v>1.011456540616231</v>
+        <v>1.017021677614609</v>
       </c>
       <c r="L17">
-        <v>0.9984006538658674</v>
+        <v>1.004111803914518</v>
       </c>
       <c r="M17">
-        <v>0.9934519463519612</v>
+        <v>1.030334030309777</v>
       </c>
       <c r="N17">
-        <v>1.002883406757204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006638433105565</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033719907773755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740976776112342</v>
+        <v>0.9802552909305583</v>
       </c>
       <c r="D18">
-        <v>0.9982473796633099</v>
+        <v>1.003505840293929</v>
       </c>
       <c r="E18">
-        <v>0.9850371484673198</v>
+        <v>0.9904404484433713</v>
       </c>
       <c r="F18">
-        <v>0.9804168153375167</v>
+        <v>1.016475654619794</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03461583048917</v>
+        <v>1.038391880247054</v>
       </c>
       <c r="J18">
-        <v>1.002176266639442</v>
+        <v>1.008085556911418</v>
       </c>
       <c r="K18">
-        <v>1.012096434349413</v>
+        <v>1.017264331528982</v>
       </c>
       <c r="L18">
-        <v>0.9991192573019413</v>
+        <v>1.004426257971423</v>
       </c>
       <c r="M18">
-        <v>0.9945823645146481</v>
+        <v>1.030015930390864</v>
       </c>
       <c r="N18">
-        <v>1.003599471889294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006710119432339</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033229180990342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9744971889112471</v>
+        <v>0.9802786358385683</v>
       </c>
       <c r="D19">
-        <v>0.9985342401743724</v>
+        <v>1.003475947230724</v>
       </c>
       <c r="E19">
-        <v>0.9853527740429894</v>
+        <v>0.990422440440812</v>
       </c>
       <c r="F19">
-        <v>0.9808752753933671</v>
+        <v>1.01554196244886</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03471613677621</v>
+        <v>1.038270498270614</v>
       </c>
       <c r="J19">
-        <v>1.002419038570958</v>
+        <v>1.007968847349106</v>
       </c>
       <c r="K19">
-        <v>1.012313643030482</v>
+        <v>1.01717072695556</v>
       </c>
       <c r="L19">
-        <v>0.9993632897348355</v>
+        <v>1.004343125124702</v>
       </c>
       <c r="M19">
-        <v>0.9949661332066414</v>
+        <v>1.029034573209964</v>
       </c>
       <c r="N19">
-        <v>1.0038425885848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006647077385488</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032125087058302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9727039309397335</v>
+        <v>0.9784006797830143</v>
       </c>
       <c r="D20">
-        <v>0.9972469372369922</v>
+        <v>1.002143120512001</v>
       </c>
       <c r="E20">
-        <v>0.9839366882327036</v>
+        <v>0.9889177928504143</v>
       </c>
       <c r="F20">
-        <v>0.9788173776189404</v>
+        <v>1.012484076643421</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034265084127715</v>
+        <v>1.037689200332915</v>
       </c>
       <c r="J20">
-        <v>1.001329190903912</v>
+        <v>1.006790381808066</v>
       </c>
       <c r="K20">
-        <v>1.011338369293703</v>
+        <v>1.016148390117558</v>
       </c>
       <c r="L20">
-        <v>0.9982679974062818</v>
+        <v>1.003158349385366</v>
       </c>
       <c r="M20">
-        <v>0.9932432129558151</v>
+        <v>1.026310904040956</v>
       </c>
       <c r="N20">
-        <v>1.002751193209059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006212761723851</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029436961055272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9667549458925027</v>
+        <v>0.9738533658166395</v>
       </c>
       <c r="D21">
-        <v>0.9929822951286486</v>
+        <v>0.9991182142944049</v>
       </c>
       <c r="E21">
-        <v>0.9792506635165648</v>
+        <v>0.9854322635247396</v>
       </c>
       <c r="F21">
-        <v>0.9719894759605207</v>
+        <v>1.009083657290598</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032754487974698</v>
+        <v>1.036806178477048</v>
       </c>
       <c r="J21">
-        <v>0.9977115268687053</v>
+        <v>1.004486454847996</v>
       </c>
       <c r="K21">
-        <v>1.008097851048614</v>
+        <v>1.014116311655515</v>
       </c>
       <c r="L21">
-        <v>0.9946360977560808</v>
+        <v>1.000694983828414</v>
       </c>
       <c r="M21">
-        <v>0.9875216842388052</v>
+        <v>1.023894956614991</v>
       </c>
       <c r="N21">
-        <v>0.9991283916759702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00542784112256</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027483525956596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.962918385025593</v>
+        <v>0.9709651613511276</v>
       </c>
       <c r="D22">
-        <v>0.9902370408471375</v>
+        <v>0.9972058320282042</v>
       </c>
       <c r="E22">
-        <v>0.9762380688875318</v>
+        <v>0.9832300001663378</v>
       </c>
       <c r="F22">
-        <v>0.9675849717775667</v>
+        <v>1.007022845296168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031769571028827</v>
+        <v>1.036247737904882</v>
       </c>
       <c r="J22">
-        <v>0.9953770374408445</v>
+        <v>1.003034818435036</v>
       </c>
       <c r="K22">
-        <v>1.006004416986362</v>
+        <v>1.012832845899375</v>
       </c>
       <c r="L22">
-        <v>0.9922954228602054</v>
+        <v>0.9991411586245684</v>
       </c>
       <c r="M22">
-        <v>0.9838271377708266</v>
+        <v>1.022456450335654</v>
       </c>
       <c r="N22">
-        <v>0.9967905870053523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.0049347466075</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026345022683537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9649616761088592</v>
+        <v>0.9725017345519256</v>
       </c>
       <c r="D23">
-        <v>0.9916986091422779</v>
+        <v>0.9982228193293139</v>
       </c>
       <c r="E23">
-        <v>0.9778416092856526</v>
+        <v>0.9844008498143627</v>
       </c>
       <c r="F23">
-        <v>0.9699308696811243</v>
+        <v>1.008118310287592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032295111677738</v>
+        <v>1.036545739134481</v>
       </c>
       <c r="J23">
-        <v>0.9966204655387572</v>
+        <v>1.003807179829875</v>
       </c>
       <c r="K23">
-        <v>1.007119660340556</v>
+        <v>1.013515934995223</v>
       </c>
       <c r="L23">
-        <v>0.9935418605143479</v>
+        <v>0.9999676511459625</v>
       </c>
       <c r="M23">
-        <v>0.9857952433990105</v>
+        <v>1.023221513022077</v>
       </c>
       <c r="N23">
-        <v>0.9980357809137874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005197116811664</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026950530440864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728021088336937</v>
+        <v>0.9784320539990748</v>
       </c>
       <c r="D24">
-        <v>0.9973173943236009</v>
+        <v>1.002156869699618</v>
       </c>
       <c r="E24">
-        <v>0.9840141739971113</v>
+        <v>0.9889366685948929</v>
       </c>
       <c r="F24">
-        <v>0.9789300469718363</v>
+        <v>1.012365920658136</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034289832278962</v>
+        <v>1.037675873987895</v>
       </c>
       <c r="J24">
-        <v>1.001388867018244</v>
+        <v>1.006786389723954</v>
       </c>
       <c r="K24">
-        <v>1.011391783871618</v>
+        <v>1.016146213867045</v>
       </c>
       <c r="L24">
-        <v>0.9983279574752554</v>
+        <v>1.003160894797313</v>
       </c>
       <c r="M24">
-        <v>0.9933375615450787</v>
+        <v>1.026179302039577</v>
       </c>
       <c r="N24">
-        <v>1.002810954070319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006208849464036</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029291463265382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815134624113019</v>
+        <v>0.9850825999629106</v>
       </c>
       <c r="D25">
-        <v>1.003578221149104</v>
+        <v>1.006584763037882</v>
       </c>
       <c r="E25">
-        <v>0.9909092870909436</v>
+        <v>0.9940562280339228</v>
       </c>
       <c r="F25">
-        <v>0.9889263118627826</v>
+        <v>1.017167199850683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036459657967189</v>
+        <v>1.038900697476444</v>
       </c>
       <c r="J25">
-        <v>1.006679400907292</v>
+        <v>1.010122638653773</v>
       </c>
       <c r="K25">
-        <v>1.016121242640462</v>
+        <v>1.019081711854629</v>
       </c>
       <c r="L25">
-        <v>1.003650383177146</v>
+        <v>1.006747519522407</v>
       </c>
       <c r="M25">
-        <v>1.001698999896721</v>
+        <v>1.029504736708379</v>
       </c>
       <c r="N25">
-        <v>1.008109001124322</v>
+        <v>1.007341119676121</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.031923358628742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9902146418041007</v>
+        <v>0.9911807982667994</v>
       </c>
       <c r="D2">
-        <v>1.010012242588516</v>
+        <v>1.010965084379944</v>
       </c>
       <c r="E2">
-        <v>0.9980314778078434</v>
+        <v>0.9988676566238819</v>
       </c>
       <c r="F2">
-        <v>1.020900190700175</v>
+        <v>1.021315047889086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.039810115724276</v>
+        <v>1.040207780663707</v>
       </c>
       <c r="J2">
-        <v>1.012692023067704</v>
+        <v>1.013628528337838</v>
       </c>
       <c r="K2">
-        <v>1.021333831225068</v>
+        <v>1.02227374291677</v>
       </c>
       <c r="L2">
-        <v>1.009518305568661</v>
+        <v>1.010342789362414</v>
       </c>
       <c r="M2">
-        <v>1.032075833584487</v>
+        <v>1.032485207089186</v>
       </c>
       <c r="N2">
-        <v>1.008212463891305</v>
+        <v>1.010862939206173</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033958231058698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034282225641317</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018108265639173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938474275311995</v>
+        <v>0.9946679549475398</v>
       </c>
       <c r="D3">
-        <v>1.012443500584792</v>
+        <v>1.013201547821557</v>
       </c>
       <c r="E3">
-        <v>1.000858882791593</v>
+        <v>1.001569549511229</v>
       </c>
       <c r="F3">
-        <v>1.023557774556449</v>
+        <v>1.023906151269217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.040432368627754</v>
+        <v>1.040749762820506</v>
       </c>
       <c r="J3">
-        <v>1.014507234785161</v>
+        <v>1.015305039892225</v>
       </c>
       <c r="K3">
-        <v>1.022919602267364</v>
+        <v>1.023668253627721</v>
       </c>
       <c r="L3">
-        <v>1.011480785835445</v>
+        <v>1.012182386973801</v>
       </c>
       <c r="M3">
-        <v>1.033897847553991</v>
+        <v>1.034242019717342</v>
       </c>
       <c r="N3">
-        <v>1.008827617887914</v>
+        <v>1.011315052268969</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035400244723232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035672635807287</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018379743984197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9961567979220188</v>
+        <v>0.9968858276099902</v>
       </c>
       <c r="D4">
-        <v>1.013991068861709</v>
+        <v>1.014625999875073</v>
       </c>
       <c r="E4">
-        <v>1.002662264168643</v>
+        <v>1.003293928585737</v>
       </c>
       <c r="F4">
-        <v>1.025253887311149</v>
+        <v>1.025560483700563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.040817725538411</v>
+        <v>1.041084332084135</v>
       </c>
       <c r="J4">
-        <v>1.015659326747874</v>
+        <v>1.016369531099118</v>
       </c>
       <c r="K4">
-        <v>1.023923516496791</v>
+        <v>1.024551049545286</v>
       </c>
       <c r="L4">
-        <v>1.012728663854586</v>
+        <v>1.013352760697165</v>
       </c>
       <c r="M4">
-        <v>1.035056782727817</v>
+        <v>1.035359901502066</v>
       </c>
       <c r="N4">
-        <v>1.009217833550863</v>
+        <v>1.011601990101143</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.036317470165345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03655736971384</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018549012018791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971180546825174</v>
+        <v>0.9978092440767022</v>
       </c>
       <c r="D5">
-        <v>1.014635666094226</v>
+        <v>1.015219516100323</v>
       </c>
       <c r="E5">
-        <v>1.003414310790687</v>
+        <v>1.004013271815517</v>
       </c>
       <c r="F5">
-        <v>1.025961437261953</v>
+        <v>1.026250752584619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.040975638441428</v>
+        <v>1.041221160871854</v>
       </c>
       <c r="J5">
-        <v>1.016138405501551</v>
+        <v>1.016812278869084</v>
       </c>
       <c r="K5">
-        <v>1.024340349750583</v>
+        <v>1.024917577056439</v>
       </c>
       <c r="L5">
-        <v>1.013248131485279</v>
+        <v>1.013840109411008</v>
       </c>
       <c r="M5">
-        <v>1.035539304863305</v>
+        <v>1.035825425758742</v>
       </c>
       <c r="N5">
-        <v>1.009380044562568</v>
+        <v>1.01172130213764</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036699356213681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03692580288484</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018618661018502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.997278898790058</v>
+        <v>0.9979637704840466</v>
       </c>
       <c r="D6">
-        <v>1.01474354869803</v>
+        <v>1.015318860999262</v>
       </c>
       <c r="E6">
-        <v>1.00354022994093</v>
+        <v>1.004133729203439</v>
       </c>
       <c r="F6">
-        <v>1.026079919581778</v>
+        <v>1.026366349595443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041001914113006</v>
+        <v>1.041243911831344</v>
       </c>
       <c r="J6">
-        <v>1.016218539814478</v>
+        <v>1.016886341657173</v>
       </c>
       <c r="K6">
-        <v>1.024410035041889</v>
+        <v>1.024978851149539</v>
       </c>
       <c r="L6">
-        <v>1.013335054396811</v>
+        <v>1.013921666136539</v>
       </c>
       <c r="M6">
-        <v>1.035620050050516</v>
+        <v>1.035903331918899</v>
       </c>
       <c r="N6">
-        <v>1.009407173963431</v>
+        <v>1.011741258691919</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036763260951983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036987460692218</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018630267338346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9961696796482743</v>
+        <v>0.9969057920575606</v>
       </c>
       <c r="D7">
-        <v>1.013999705406238</v>
+        <v>1.014639586637668</v>
       </c>
       <c r="E7">
-        <v>1.002672336789096</v>
+        <v>1.003310322383485</v>
       </c>
       <c r="F7">
-        <v>1.025263363046321</v>
+        <v>1.025573044612612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.040819851593303</v>
+        <v>1.041088726533817</v>
       </c>
       <c r="J7">
-        <v>1.015665748737698</v>
+        <v>1.016382860732176</v>
       </c>
       <c r="K7">
-        <v>1.023929106594811</v>
+        <v>1.024561534881847</v>
       </c>
       <c r="L7">
-        <v>1.012735625046335</v>
+        <v>1.01336597015366</v>
       </c>
       <c r="M7">
-        <v>1.035063248525393</v>
+        <v>1.035369418748136</v>
       </c>
       <c r="N7">
-        <v>1.009220008184555</v>
+        <v>1.011631487864974</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.036322587440511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036564902017449</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018551543970742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914510799599431</v>
+        <v>0.9923908448048071</v>
       </c>
       <c r="D8">
-        <v>1.010839283475705</v>
+        <v>1.011743140774083</v>
       </c>
       <c r="E8">
-        <v>0.9989925246776363</v>
+        <v>0.999806684523238</v>
       </c>
       <c r="F8">
-        <v>1.021803286877433</v>
+        <v>1.022205709842059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040024015969117</v>
+        <v>1.040402235070426</v>
       </c>
       <c r="J8">
-        <v>1.013310208383785</v>
+        <v>1.0142220987892</v>
       </c>
       <c r="K8">
-        <v>1.021874404562743</v>
+        <v>1.022766358996627</v>
       </c>
       <c r="L8">
-        <v>1.010186160172932</v>
+        <v>1.010989275026418</v>
       </c>
       <c r="M8">
-        <v>1.032695800959033</v>
+        <v>1.033093062437596</v>
       </c>
       <c r="N8">
-        <v>1.008422003261275</v>
+        <v>1.011101786423804</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03444889800388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034763306427311</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018206306498261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828069064640867</v>
+        <v>0.9841035478818716</v>
       </c>
       <c r="D9">
-        <v>1.005067802688908</v>
+        <v>1.006442339712408</v>
       </c>
       <c r="E9">
-        <v>0.9923004216293729</v>
+        <v>0.9934212709898703</v>
       </c>
       <c r="F9">
-        <v>1.015519736874848</v>
+        <v>1.016085047525725</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.038487102163591</v>
+        <v>1.039059081269478</v>
       </c>
       <c r="J9">
-        <v>1.008981755513614</v>
+        <v>1.010230415020342</v>
       </c>
       <c r="K9">
-        <v>1.018079189966663</v>
+        <v>1.019431752078318</v>
       </c>
       <c r="L9">
-        <v>1.005519666683889</v>
+        <v>1.006621992935018</v>
       </c>
       <c r="M9">
-        <v>1.028365937262518</v>
+        <v>1.028922437329846</v>
       </c>
       <c r="N9">
-        <v>1.00695402028211</v>
+        <v>1.010034205719965</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03102206374528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031462501990041</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017542906423937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768585642110611</v>
+        <v>0.9784400729764213</v>
       </c>
       <c r="D10">
-        <v>1.001120755274289</v>
+        <v>1.00284704115087</v>
       </c>
       <c r="E10">
-        <v>0.9877372163890588</v>
+        <v>0.9891026807509649</v>
       </c>
       <c r="F10">
-        <v>1.011414483285265</v>
+        <v>1.01210902786585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03740368717517</v>
+        <v>1.038121035974705</v>
       </c>
       <c r="J10">
-        <v>1.00602139754815</v>
+        <v>1.007535997931432</v>
       </c>
       <c r="K10">
-        <v>1.015469803580264</v>
+        <v>1.017165080955091</v>
       </c>
       <c r="L10">
-        <v>1.002331466134713</v>
+        <v>1.003671517177919</v>
       </c>
       <c r="M10">
-        <v>1.025580659342579</v>
+        <v>1.026263038593868</v>
       </c>
       <c r="N10">
-        <v>1.005952382748622</v>
+        <v>1.009426361982497</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02886971521801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029409746890782</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017084490201521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9746578444257638</v>
+        <v>0.9763849236981694</v>
       </c>
       <c r="D11">
-        <v>0.9997357323748159</v>
+        <v>1.001615538110312</v>
       </c>
       <c r="E11">
-        <v>0.9861108527240557</v>
+        <v>0.9876014806333471</v>
       </c>
       <c r="F11">
-        <v>1.011315771670222</v>
+        <v>1.012072754747513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037186190547306</v>
+        <v>1.037966506466844</v>
       </c>
       <c r="J11">
-        <v>1.005124256636099</v>
+        <v>1.006774220587302</v>
       </c>
       <c r="K11">
-        <v>1.014662634117471</v>
+        <v>1.016507051923657</v>
       </c>
       <c r="L11">
-        <v>1.001299538944123</v>
+        <v>1.002761064848932</v>
       </c>
       <c r="M11">
-        <v>1.02602739830169</v>
+        <v>1.026770532245948</v>
       </c>
       <c r="N11">
-        <v>1.005677629665044</v>
+        <v>1.009471491826868</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029663954240648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030251764662028</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016979018596917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9739797495528417</v>
+        <v>0.9757530451676013</v>
       </c>
       <c r="D12">
-        <v>0.9993379345998684</v>
+        <v>1.00126325457787</v>
       </c>
       <c r="E12">
-        <v>0.9856344488170287</v>
+        <v>0.9871641791019267</v>
       </c>
       <c r="F12">
-        <v>1.011861361989051</v>
+        <v>1.012636672822071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037195257993035</v>
+        <v>1.037993168562262</v>
       </c>
       <c r="J12">
-        <v>1.004927668421205</v>
+        <v>1.006620248916192</v>
       </c>
       <c r="K12">
-        <v>1.014477829739251</v>
+        <v>1.016366292576498</v>
       </c>
       <c r="L12">
-        <v>1.001042144141206</v>
+        <v>1.002541495243589</v>
       </c>
       <c r="M12">
-        <v>1.026764791348691</v>
+        <v>1.027525713558627</v>
       </c>
       <c r="N12">
-        <v>1.005635668454748</v>
+        <v>1.009549817041191</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030576414516999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031178088062508</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016970481349909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9744277015547262</v>
+        <v>0.9761627064612753</v>
       </c>
       <c r="D13">
-        <v>0.9996722075547151</v>
+        <v>1.001554389105629</v>
       </c>
       <c r="E13">
-        <v>0.9860082018547808</v>
+        <v>0.9875037451664058</v>
       </c>
       <c r="F13">
-        <v>1.012959063157384</v>
+        <v>1.013715212639045</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037383907284334</v>
+        <v>1.038162147410756</v>
       </c>
       <c r="J13">
-        <v>1.005258447160688</v>
+        <v>1.006914869868988</v>
       </c>
       <c r="K13">
-        <v>1.014761635215803</v>
+        <v>1.016607935898128</v>
       </c>
       <c r="L13">
-        <v>1.0013635096408</v>
+        <v>1.002829481037465</v>
       </c>
       <c r="M13">
-        <v>1.027798914364544</v>
+        <v>1.02854111694417</v>
       </c>
       <c r="N13">
-        <v>1.005770368311673</v>
+        <v>1.009622781516703</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031672710423396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032259432710729</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017035159493932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9752466566417817</v>
+        <v>0.9769175162268506</v>
       </c>
       <c r="D14">
-        <v>1.000233857195792</v>
+        <v>1.002046665563893</v>
       </c>
       <c r="E14">
-        <v>0.9866508659622688</v>
+        <v>0.9880902026564422</v>
       </c>
       <c r="F14">
-        <v>1.013963647313281</v>
+        <v>1.014690009198929</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037593797825874</v>
+        <v>1.038341989701151</v>
       </c>
       <c r="J14">
-        <v>1.005723918758018</v>
+        <v>1.007320188786256</v>
       </c>
       <c r="K14">
-        <v>1.015168327732989</v>
+        <v>1.016947006050141</v>
       </c>
       <c r="L14">
-        <v>1.001846301906174</v>
+        <v>1.003257539377981</v>
       </c>
       <c r="M14">
-        <v>1.028643578209649</v>
+        <v>1.02935672352073</v>
       </c>
       <c r="N14">
-        <v>1.005942956141703</v>
+        <v>1.009671357771911</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032514724443807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033078399785426</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017112726595033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9756954616631541</v>
+        <v>0.9773328580560168</v>
       </c>
       <c r="D15">
-        <v>1.000534401013174</v>
+        <v>1.002311255869178</v>
       </c>
       <c r="E15">
-        <v>0.9869967303338767</v>
+        <v>0.9884069725364941</v>
       </c>
       <c r="F15">
-        <v>1.014360073178718</v>
+        <v>1.015071274559067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037688262222667</v>
+        <v>1.038421223748517</v>
       </c>
       <c r="J15">
-        <v>1.005958047341405</v>
+        <v>1.007522989563859</v>
       </c>
       <c r="K15">
-        <v>1.015374374744905</v>
+        <v>1.01711803050571</v>
       </c>
       <c r="L15">
-        <v>1.002094789704169</v>
+        <v>1.003477714437774</v>
       </c>
       <c r="M15">
-        <v>1.028945714812642</v>
+        <v>1.029644076740515</v>
       </c>
       <c r="N15">
-        <v>1.006025423900809</v>
+        <v>1.0096864539311</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032791259250336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033343235083832</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01714905524249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781169761560013</v>
+        <v>0.9795899454151451</v>
       </c>
       <c r="D16">
-        <v>1.002131816575834</v>
+        <v>1.00372969829541</v>
       </c>
       <c r="E16">
-        <v>0.9888410484068271</v>
+        <v>0.9901093537387544</v>
       </c>
       <c r="F16">
-        <v>1.01593273443543</v>
+        <v>1.016570751472105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038122259688352</v>
+        <v>1.038780888909168</v>
       </c>
       <c r="J16">
-        <v>1.007146882303158</v>
+        <v>1.008557953289371</v>
       </c>
       <c r="K16">
-        <v>1.016426121885766</v>
+        <v>1.017995456045119</v>
       </c>
       <c r="L16">
-        <v>1.003377467194152</v>
+        <v>1.004622302537282</v>
       </c>
       <c r="M16">
-        <v>1.029984305310058</v>
+        <v>1.030611306860476</v>
       </c>
       <c r="N16">
-        <v>1.006423063425421</v>
+        <v>1.009754440241748</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033573236951905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.034068824715747</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01732358849345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9795503336021829</v>
+        <v>0.9809393413685674</v>
       </c>
       <c r="D17">
-        <v>1.003067214900732</v>
+        <v>1.00457040705583</v>
       </c>
       <c r="E17">
-        <v>0.9899247829866933</v>
+        <v>0.9911210704013979</v>
       </c>
       <c r="F17">
-        <v>1.016611117642893</v>
+        <v>1.017212256392269</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038344310619355</v>
+        <v>1.038964221765021</v>
       </c>
       <c r="J17">
-        <v>1.007817696262945</v>
+        <v>1.009150224886768</v>
       </c>
       <c r="K17">
-        <v>1.017021677614609</v>
+        <v>1.018498772244297</v>
       </c>
       <c r="L17">
-        <v>1.004111803914518</v>
+        <v>1.005286591284014</v>
       </c>
       <c r="M17">
-        <v>1.030334030309777</v>
+        <v>1.030925076078192</v>
       </c>
       <c r="N17">
-        <v>1.006638433105565</v>
+        <v>1.009810978097291</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033719907773755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.034187122652813</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017418261589542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802552909305583</v>
+        <v>0.9816115067429098</v>
       </c>
       <c r="D18">
-        <v>1.003505840293929</v>
+        <v>1.004971032728245</v>
       </c>
       <c r="E18">
-        <v>0.9904404484433713</v>
+        <v>0.9916091511929421</v>
       </c>
       <c r="F18">
-        <v>1.016475654619794</v>
+        <v>1.017063269448811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038391880247054</v>
+        <v>1.038997003768521</v>
       </c>
       <c r="J18">
-        <v>1.008085556911418</v>
+        <v>1.009387672221491</v>
       </c>
       <c r="K18">
-        <v>1.017264331528982</v>
+        <v>1.018704507833308</v>
       </c>
       <c r="L18">
-        <v>1.004426257971423</v>
+        <v>1.005574310729149</v>
       </c>
       <c r="M18">
-        <v>1.030015930390864</v>
+        <v>1.030593828280591</v>
       </c>
       <c r="N18">
-        <v>1.006710119432339</v>
+        <v>1.009819902784204</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033229180990342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.03368609891168</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017447009282299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9802786358385683</v>
+        <v>0.9816434858959234</v>
       </c>
       <c r="D19">
-        <v>1.003475947230724</v>
+        <v>1.004951622969013</v>
       </c>
       <c r="E19">
-        <v>0.990422440440812</v>
+        <v>0.9915994338685441</v>
       </c>
       <c r="F19">
-        <v>1.01554196244886</v>
+        <v>1.016135200467887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038270498270614</v>
+        <v>1.038881202118528</v>
       </c>
       <c r="J19">
-        <v>1.007968847349106</v>
+        <v>1.009279576914701</v>
       </c>
       <c r="K19">
-        <v>1.01717072695556</v>
+        <v>1.018621341100615</v>
       </c>
       <c r="L19">
-        <v>1.004343125124702</v>
+        <v>1.005499433284599</v>
       </c>
       <c r="M19">
-        <v>1.029034573209964</v>
+        <v>1.029618030697127</v>
       </c>
       <c r="N19">
-        <v>1.006647077385488</v>
+        <v>1.009761906138637</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032125087058302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.032586553747715</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017411631996373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9784006797830143</v>
+        <v>0.9798864782037725</v>
       </c>
       <c r="D20">
-        <v>1.002143120512001</v>
+        <v>1.003761725185115</v>
       </c>
       <c r="E20">
-        <v>0.9889177928504143</v>
+        <v>0.9902004391994123</v>
       </c>
       <c r="F20">
-        <v>1.012484076643421</v>
+        <v>1.013135325210291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.037689200332915</v>
+        <v>1.038361382406492</v>
       </c>
       <c r="J20">
-        <v>1.006790381808066</v>
+        <v>1.008215382270187</v>
       </c>
       <c r="K20">
-        <v>1.016148390117558</v>
+        <v>1.017738750130712</v>
       </c>
       <c r="L20">
-        <v>1.003158349385366</v>
+        <v>1.004417818877447</v>
       </c>
       <c r="M20">
-        <v>1.026310904040956</v>
+        <v>1.026951072171817</v>
       </c>
       <c r="N20">
-        <v>1.006212761723851</v>
+        <v>1.009510763677288</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029436961055272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.029943593283798</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017200217904742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9738533658166395</v>
+        <v>0.9756665106174851</v>
       </c>
       <c r="D21">
-        <v>0.9991182142944049</v>
+        <v>1.001090139748791</v>
       </c>
       <c r="E21">
-        <v>0.9854322635247396</v>
+        <v>0.9869994844238912</v>
       </c>
       <c r="F21">
-        <v>1.009083657290598</v>
+        <v>1.009883804258935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036806178477048</v>
+        <v>1.037628175046446</v>
       </c>
       <c r="J21">
-        <v>1.004486454847996</v>
+        <v>1.006218050833796</v>
       </c>
       <c r="K21">
-        <v>1.014116311655515</v>
+        <v>1.016050888489705</v>
       </c>
       <c r="L21">
-        <v>1.000694983828414</v>
+        <v>1.002231413609648</v>
       </c>
       <c r="M21">
-        <v>1.023894956614991</v>
+        <v>1.024680313560306</v>
       </c>
       <c r="N21">
-        <v>1.00542784112256</v>
+        <v>1.00938774858653</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027483525956596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.028105094537658</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016856158229392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9709651613511276</v>
+        <v>0.9729860680754732</v>
       </c>
       <c r="D22">
-        <v>0.9972058320282042</v>
+        <v>0.9994022210718037</v>
       </c>
       <c r="E22">
-        <v>0.9832300001663378</v>
+        <v>0.9849776398984517</v>
       </c>
       <c r="F22">
-        <v>1.007022845296168</v>
+        <v>1.007917916221915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036247737904882</v>
+        <v>1.037164974714041</v>
       </c>
       <c r="J22">
-        <v>1.003034818435036</v>
+        <v>1.004959485581869</v>
       </c>
       <c r="K22">
-        <v>1.012832845899375</v>
+        <v>1.014985529388077</v>
       </c>
       <c r="L22">
-        <v>0.9991411586245684</v>
+        <v>1.000852684577447</v>
       </c>
       <c r="M22">
-        <v>1.022456450335654</v>
+        <v>1.02333413277696</v>
       </c>
       <c r="N22">
-        <v>1.0049347466075</v>
+        <v>1.009306158436053</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026345022683537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.027039663137912</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016638177324236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9725017345519256</v>
+        <v>0.9743995754510886</v>
       </c>
       <c r="D23">
-        <v>0.9982228193293139</v>
+        <v>1.000290086522672</v>
       </c>
       <c r="E23">
-        <v>0.9844008498143627</v>
+        <v>0.9860412636015266</v>
       </c>
       <c r="F23">
-        <v>1.008118310287592</v>
+        <v>1.008957101429532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036545739134481</v>
+        <v>1.037407815468387</v>
       </c>
       <c r="J23">
-        <v>1.003807179829875</v>
+        <v>1.005617319923261</v>
       </c>
       <c r="K23">
-        <v>1.013515934995223</v>
+        <v>1.015543120623586</v>
       </c>
       <c r="L23">
-        <v>0.9999676511459625</v>
+        <v>1.001575055382492</v>
       </c>
       <c r="M23">
-        <v>1.023221513022077</v>
+        <v>1.024044430023735</v>
       </c>
       <c r="N23">
-        <v>1.005197116811664</v>
+        <v>1.009307258284486</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026950530440864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.027601826315593</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016751647218494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784320539990748</v>
+        <v>0.9799171473664284</v>
       </c>
       <c r="D24">
-        <v>1.002156869699618</v>
+        <v>1.003774909606624</v>
       </c>
       <c r="E24">
-        <v>0.9889366685948929</v>
+        <v>0.9902187990627063</v>
       </c>
       <c r="F24">
-        <v>1.012365920658136</v>
+        <v>1.013017141281119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.037675873987895</v>
+        <v>1.038347965267231</v>
       </c>
       <c r="J24">
-        <v>1.006786389723954</v>
+        <v>1.00821080529419</v>
       </c>
       <c r="K24">
-        <v>1.016146213867045</v>
+        <v>1.017736056325795</v>
       </c>
       <c r="L24">
-        <v>1.003160894797313</v>
+        <v>1.004419888829071</v>
       </c>
       <c r="M24">
-        <v>1.026179302039577</v>
+        <v>1.02681945360087</v>
       </c>
       <c r="N24">
-        <v>1.006208849464036</v>
+        <v>1.009503663930084</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029291463265382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.02979810816205</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017197033150549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850825999629106</v>
+        <v>0.9862748588246669</v>
       </c>
       <c r="D25">
-        <v>1.006584763037882</v>
+        <v>1.007827697163984</v>
       </c>
       <c r="E25">
-        <v>0.9940562280339228</v>
+        <v>0.9950872539127378</v>
       </c>
       <c r="F25">
-        <v>1.017167199850683</v>
+        <v>1.017685003543089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038900697476444</v>
+        <v>1.039418258836344</v>
       </c>
       <c r="J25">
-        <v>1.010122638653773</v>
+        <v>1.011273124894957</v>
       </c>
       <c r="K25">
-        <v>1.019081711854629</v>
+        <v>1.020305701464438</v>
       </c>
       <c r="L25">
-        <v>1.006747519522407</v>
+        <v>1.007762315686727</v>
       </c>
       <c r="M25">
-        <v>1.029504736708379</v>
+        <v>1.030014848454726</v>
       </c>
       <c r="N25">
-        <v>1.007341119676121</v>
+        <v>1.010282690022193</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.031923358628742</v>
+        <v>1.032327082637297</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017718487093406</v>
       </c>
     </row>
   </sheetData>
